--- a/Project Model_Fast Prod_Equal Demand.xlsx
+++ b/Project Model_Fast Prod_Equal Demand.xlsx
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Energy Costs</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Unit Emissions</t>
+    <t xml:space="preserve">Emissions Per Hour</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Production</t>
@@ -854,8 +854,8 @@
   </sheetPr>
   <dimension ref="A1:AC416"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L400" activeCellId="0" sqref="L400"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D101" activeCellId="0" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2521,23 +2521,23 @@
         <v>1</v>
       </c>
       <c r="B83" s="0" t="n">
-        <f aca="false">F47</f>
-        <v>0.15</v>
+        <f aca="false">F47/B50</f>
+        <v>0.0166666666666667</v>
       </c>
       <c r="C83" s="0" t="n">
-        <f aca="false">F67</f>
-        <v>0.164383561643836</v>
+        <f aca="false">F67/B70</f>
+        <v>0.0074719800747198</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="n">
-        <f aca="false">D50</f>
-        <v>0.00911111111111111</v>
+        <f aca="false">B47*D47+B48*D48+B49*D49</f>
+        <v>0.082</v>
       </c>
       <c r="G83" s="0" t="n">
-        <f aca="false">D70</f>
-        <v>0.00945454545454546</v>
+        <f aca="false">B67*D67+B68*D68+B69*D69</f>
+        <v>0.208</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,23 +2545,23 @@
         <v>2</v>
       </c>
       <c r="B84" s="0" t="n">
-        <f aca="false">F52</f>
-        <v>0.18</v>
+        <f aca="false">F52/B55</f>
+        <v>0.0225</v>
       </c>
       <c r="C84" s="0" t="n">
-        <f aca="false">F72</f>
-        <v>0.197027027027027</v>
+        <f aca="false">F72/B75</f>
+        <v>0.00938223938223938</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F84" s="0" t="n">
-        <f aca="false">D55</f>
-        <v>0.007375</v>
+        <f aca="false">B52*D52+B53*D53+B54*D54</f>
+        <v>0.059</v>
       </c>
       <c r="G84" s="0" t="n">
-        <f aca="false">D75</f>
-        <v>0.00880952380952381</v>
+        <f aca="false">B72*D72+B73*D73+B74*D74</f>
+        <v>0.185</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,23 +2569,23 @@
         <v>3</v>
       </c>
       <c r="B85" s="0" t="n">
-        <f aca="false">F57</f>
-        <v>0.09</v>
+        <f aca="false">F57/B60</f>
+        <v>0.012</v>
       </c>
       <c r="C85" s="0" t="n">
-        <f aca="false">F77</f>
-        <v>0.0977483443708609</v>
+        <f aca="false">F77/B80</f>
+        <v>0.00488741721854305</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F85" s="0" t="n">
-        <f aca="false">D60</f>
-        <v>0.0098</v>
+        <f aca="false">B57*D57+B58*D58+B59*D59</f>
+        <v>0.0735</v>
       </c>
       <c r="G85" s="0" t="n">
-        <f aca="false">D80</f>
-        <v>0.0098</v>
+        <f aca="false">B77*D77+B78*D78+B79*D79</f>
+        <v>0.196</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B101" s="22" t="n">
         <f aca="false">B123+B149+B175+B201+B227+B253+B279+B305+B331+B357+B383+B409</f>
-        <v>20108.2721518764</v>
+        <v>19418.1557942605</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B102" s="22" t="n">
         <f aca="false">B124+B150+B176+B202+B228+B254+B280+B306+B332+B358+B384+B410</f>
-        <v>23.863</v>
+        <v>174.944924963925</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B123" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B109:I111),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B118:I120,$B$32:$I$34)+1.2*SUMPRODUCT(B109:I111,$B$39:$I$41)</f>
-        <v>1481.82166887417</v>
+        <v>1463.24948344371</v>
       </c>
       <c r="N123" s="29" t="n">
         <v>250</v>
@@ -3939,8 +3939,8 @@
         <v>57</v>
       </c>
       <c r="B124" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B109:I111),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.96</v>
+        <f aca="false">SUMPRODUCT(J109:J111/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J109:J111/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.3304329004329</v>
       </c>
       <c r="N124" s="23" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q136" s="24" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>250</v>
       </c>
       <c r="S136" s="24" t="n">
-        <v>16.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="T136" s="24" t="n">
         <v>50</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="X136" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y136" s="24" t="n">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="AA136" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB136" s="24" t="n">
         <v>1</v>
@@ -4857,16 +4857,16 @@
         <v>0</v>
       </c>
       <c r="P137" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q137" s="27" t="n">
-        <v>108.333333333333</v>
+        <v>350</v>
       </c>
       <c r="R137" s="27" t="n">
         <v>0</v>
       </c>
       <c r="S137" s="27" t="n">
-        <v>383.333333333333</v>
+        <v>400</v>
       </c>
       <c r="T137" s="27" t="n">
         <v>0</v>
@@ -4881,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="X137" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y137" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z137" s="27" t="n">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="Q138" s="30" t="n">
-        <v>241.666666666667</v>
+        <v>0</v>
       </c>
       <c r="R138" s="30" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="Y138" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z138" s="30" t="n">
         <v>0</v>
@@ -5023,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="P139" s="24" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q139" s="24" t="n">
         <v>0</v>
       </c>
       <c r="R139" s="24" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="S139" s="24" t="n">
         <v>0</v>
@@ -5047,13 +5047,13 @@
         <v>0</v>
       </c>
       <c r="X139" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y139" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Z139" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA139" s="24" t="n">
         <v>0</v>
@@ -5106,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="P140" s="27" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q140" s="27" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="R140" s="27" t="n">
-        <v>74.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="S140" s="27" t="n">
         <v>500</v>
@@ -5130,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="X140" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y140" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z140" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA140" s="27" t="n">
         <v>2</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="Q141" s="30" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="R141" s="30" t="n">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="Y141" s="30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z141" s="30" t="n">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="24" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="Q142" s="24" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>150</v>
       </c>
       <c r="U142" s="25" t="n">
-        <v>41.6666666666667</v>
+        <v>150</v>
       </c>
       <c r="V142" s="23" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="X142" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y142" s="24" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="27" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="Q143" s="27" t="n">
-        <v>183.333333333333</v>
+        <v>450</v>
       </c>
       <c r="R143" s="27" t="n">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="U143" s="28" t="n">
-        <v>108.333333333333</v>
+        <v>0</v>
       </c>
       <c r="V143" s="26" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="X143" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y143" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z143" s="27" t="n">
         <v>0</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="AC143" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="Q144" s="30" t="n">
-        <v>266.666666666667</v>
+        <v>0</v>
       </c>
       <c r="R144" s="30" t="n">
         <v>0</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="Y144" s="30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z144" s="30" t="n">
         <v>0</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B149" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B135:I137),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B144:I146,$B$32:$I$34)+1.2*SUMPRODUCT(B135:I137,$B$39:$I$41)</f>
-        <v>1580.8489183223</v>
+        <v>1566.91977924945</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,8 +5483,8 @@
         <v>57</v>
       </c>
       <c r="B150" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B135:I137),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.47</v>
+        <f aca="false">SUMPRODUCT(J135:J137/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J135:J137/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.7981673881674</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="B175" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B161:I163),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B170:I172,$B$32:$I$34)+1.2*SUMPRODUCT(B161:I163,$B$39:$I$41)</f>
-        <v>1617.10804415011</v>
+        <v>1596.21433554084</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6012,8 +6012,8 @@
         <v>57</v>
       </c>
       <c r="B176" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B161:I163),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.205</v>
+        <f aca="false">SUMPRODUCT(J161:J163/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J161:J163/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>14.2659018759019</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B201" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B187:I189),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B196:I198,$B$32:$I$34)+1.2*SUMPRODUCT(B187:I189,$B$39:$I$41)</f>
-        <v>1686.38908609272</v>
+        <v>1663.17385430464</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,8 +6541,8 @@
         <v>57</v>
       </c>
       <c r="B202" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B187:I189),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.45</v>
+        <f aca="false">SUMPRODUCT(J187:J189/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J187:J189/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>14.7336363636364</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="B227" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B213:I215),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B222:I224,$B$32:$I$34)+1.2*SUMPRODUCT(B213:I215,$B$39:$I$41)</f>
-        <v>1637.47175275938</v>
+        <v>1614.2565209713</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,8 +7070,8 @@
         <v>57</v>
       </c>
       <c r="B228" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B213:I215),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.45</v>
+        <f aca="false">SUMPRODUCT(J213:J215/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J213:J215/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.5643001443001</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B253" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B239:I241),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B248:I250,$B$32:$I$34)+1.2*SUMPRODUCT(B239:I241,$B$39:$I$41)</f>
-        <v>1634.14083532009</v>
+        <v>1617.42586843267</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,8 +7599,8 @@
         <v>57</v>
       </c>
       <c r="B254" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B239:I241),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.764</v>
+        <f aca="false">SUMPRODUCT(J239:J241/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J239:J241/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.8449408369408</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="B279" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B265:I267),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B274:I276,$B$32:$I$34)+1.2*SUMPRODUCT(B265:I267,$B$39:$I$41)</f>
-        <v>1645.78883532009</v>
+        <v>1629.07386843267</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8128,8 +8128,8 @@
         <v>57</v>
       </c>
       <c r="B280" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B265:I267),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.764</v>
+        <f aca="false">SUMPRODUCT(J265:J267/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J265:J267/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.3772063492064</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B305" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B291:I293),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B300:I302,$B$32:$I$34)+1.2*SUMPRODUCT(B291:I293,$B$39:$I$41)</f>
-        <v>1618.52566887417</v>
+        <v>1599.95348344371</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8657,8 +8657,8 @@
         <v>57</v>
       </c>
       <c r="B306" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B291:I293),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.96</v>
+        <f aca="false">SUMPRODUCT(J291:J293/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J291:J293/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>14.0320346320346</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="B331" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B317:I319),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B326:I328,$B$32:$I$34)+1.2*SUMPRODUCT(B317:I319,$B$39:$I$41)</f>
-        <v>1547.5049183223</v>
+        <v>1533.57577924945</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9186,8 +9186,8 @@
         <v>57</v>
       </c>
       <c r="B332" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B317:I319),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.47</v>
+        <f aca="false">SUMPRODUCT(J317:J319/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J317:J319/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>12.1610966810967</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E343" s="24" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>250</v>
       </c>
       <c r="G343" s="24" t="n">
-        <v>16.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="H343" s="24" t="n">
         <v>50</v>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="J343" s="0" t="n">
         <f aca="false">SUM(B343:I343)</f>
-        <v>491.666666666667</v>
+        <v>375</v>
       </c>
       <c r="K343" s="0" t="s">
         <v>52</v>
@@ -9403,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="D344" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E344" s="27" t="n">
-        <v>108.333333333333</v>
+        <v>350</v>
       </c>
       <c r="F344" s="27" t="n">
         <v>0</v>
       </c>
       <c r="G344" s="27" t="n">
-        <v>383.333333333333</v>
+        <v>400</v>
       </c>
       <c r="H344" s="27" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="J344" s="0" t="n">
         <f aca="false">SUM(B344:I344)</f>
-        <v>491.666666666667</v>
+        <v>850</v>
       </c>
       <c r="K344" s="0" t="s">
         <v>52</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="E345" s="30" t="n">
-        <v>241.666666666667</v>
+        <v>0</v>
       </c>
       <c r="F345" s="30" t="n">
         <v>0</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="J345" s="0" t="n">
         <f aca="false">SUM(B345:I345)</f>
-        <v>491.666666666667</v>
+        <v>250</v>
       </c>
       <c r="K345" s="0" t="s">
         <v>52</v>
@@ -9620,7 +9620,7 @@
         <v>-0</v>
       </c>
       <c r="D352" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E352" s="24" t="n">
         <v>-0</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="G352" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="H352" s="24" t="n">
         <v>1</v>
@@ -9649,10 +9649,10 @@
         <v>-0</v>
       </c>
       <c r="D353" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E353" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F353" s="27" t="n">
         <v>-0</v>
@@ -9681,7 +9681,7 @@
         <v>-0</v>
       </c>
       <c r="E354" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F354" s="30" t="n">
         <v>-0</v>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B357" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B343:I345),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B352:I354,$B$32:$I$34)+1.2*SUMPRODUCT(B343:I345,$B$39:$I$41)</f>
-        <v>1575.6009183223</v>
+        <v>1426.07711258278</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9715,8 +9715,8 @@
         <v>57</v>
       </c>
       <c r="B358" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B343:I345),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.47</v>
+        <f aca="false">SUMPRODUCT(J343:J345/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J343:J345/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.4835497835498</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,7 +9762,7 @@
         <v>-0</v>
       </c>
       <c r="D362" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E362" s="0" t="n">
         <v>-0</v>
@@ -9771,7 +9771,7 @@
         <v>250</v>
       </c>
       <c r="G362" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="H362" s="0" t="n">
         <v>250</v>
@@ -9791,10 +9791,10 @@
         <v>-0</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E363" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F363" s="0" t="n">
         <v>-0</v>
@@ -9823,7 +9823,7 @@
         <v>-0</v>
       </c>
       <c r="E364" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F364" s="0" t="n">
         <v>-0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="D369" s="24" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E369" s="24" t="n">
         <v>0</v>
       </c>
       <c r="F369" s="24" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="G369" s="24" t="n">
         <v>0</v>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="J369" s="0" t="n">
         <f aca="false">SUM(B369:I369)</f>
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="K369" s="0" t="s">
         <v>52</v>
@@ -9932,13 +9932,13 @@
         <v>0</v>
       </c>
       <c r="D370" s="27" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E370" s="27" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="F370" s="27" t="n">
-        <v>74.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="G370" s="27" t="n">
         <v>500</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="J370" s="0" t="n">
         <f aca="false">SUM(B370:I370)</f>
-        <v>625</v>
+        <v>1050</v>
       </c>
       <c r="K370" s="0" t="s">
         <v>52</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="E371" s="30" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="F371" s="30" t="n">
         <v>0</v>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="J371" s="0" t="n">
         <f aca="false">SUM(B371:I371)</f>
-        <v>625</v>
+        <v>275</v>
       </c>
       <c r="K371" s="0" t="s">
         <v>52</v>
@@ -10149,13 +10149,13 @@
         <v>-0</v>
       </c>
       <c r="D378" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E378" s="24" t="n">
         <v>-0</v>
       </c>
       <c r="F378" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G378" s="24" t="n">
         <v>-0</v>
@@ -10178,13 +10178,13 @@
         <v>-0</v>
       </c>
       <c r="D379" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E379" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F379" s="27" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="G379" s="27" t="n">
         <v>2</v>
@@ -10210,7 +10210,7 @@
         <v>-0</v>
       </c>
       <c r="E380" s="30" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="F380" s="30" t="n">
         <v>-0</v>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="B383" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B369:I371),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B378:I380,$B$32:$I$34)+1.2*SUMPRODUCT(B369:I371,$B$39:$I$41)</f>
-        <v>1830.10966887417</v>
+        <v>1666.44948344371</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10244,8 +10244,8 @@
         <v>57</v>
       </c>
       <c r="B384" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B369:I371),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.96</v>
+        <f aca="false">SUMPRODUCT(J369:J371/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J369:J371/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>17.145</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10291,13 +10291,13 @@
         <v>-0</v>
       </c>
       <c r="D388" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E388" s="0" t="n">
         <v>-0</v>
       </c>
       <c r="F388" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G388" s="0" t="n">
         <v>-0</v>
@@ -10320,13 +10320,13 @@
         <v>-0</v>
       </c>
       <c r="D389" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E389" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F389" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="G389" s="0" t="n">
         <v>500</v>
@@ -10352,7 +10352,7 @@
         <v>-0</v>
       </c>
       <c r="E390" s="0" t="n">
-        <v>500</v>
+        <v>-0</v>
       </c>
       <c r="F390" s="0" t="n">
         <v>-0</v>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="24" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E395" s="24" t="n">
         <v>0</v>
@@ -10436,11 +10436,11 @@
         <v>150</v>
       </c>
       <c r="I395" s="25" t="n">
-        <v>41.6666666666667</v>
+        <v>150</v>
       </c>
       <c r="J395" s="0" t="n">
         <f aca="false">SUM(B395:I395)</f>
-        <v>766.666666666667</v>
+        <v>700</v>
       </c>
       <c r="K395" s="0" t="s">
         <v>52</v>
@@ -10461,10 +10461,10 @@
         <v>0</v>
       </c>
       <c r="D396" s="27" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E396" s="27" t="n">
-        <v>183.333333333333</v>
+        <v>450</v>
       </c>
       <c r="F396" s="27" t="n">
         <v>0</v>
@@ -10476,11 +10476,11 @@
         <v>0</v>
       </c>
       <c r="I396" s="28" t="n">
-        <v>108.333333333333</v>
+        <v>0</v>
       </c>
       <c r="J396" s="0" t="n">
         <f aca="false">SUM(B396:I396)</f>
-        <v>766.666666666667</v>
+        <v>1100</v>
       </c>
       <c r="K396" s="0" t="s">
         <v>52</v>
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="E397" s="30" t="n">
-        <v>266.666666666667</v>
+        <v>0</v>
       </c>
       <c r="F397" s="30" t="n">
         <v>0</v>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="J397" s="0" t="n">
         <f aca="false">SUM(B397:I397)</f>
-        <v>766.666666666667</v>
+        <v>500</v>
       </c>
       <c r="K397" s="0" t="s">
         <v>52</v>
@@ -10678,7 +10678,7 @@
         <v>-0</v>
       </c>
       <c r="D404" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E404" s="24" t="n">
         <v>-0</v>
@@ -10707,10 +10707,10 @@
         <v>-0</v>
       </c>
       <c r="D405" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E405" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F405" s="27" t="n">
         <v>-0</v>
@@ -10722,7 +10722,7 @@
         <v>-0</v>
       </c>
       <c r="I405" s="28" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10739,7 +10739,7 @@
         <v>-0</v>
       </c>
       <c r="E406" s="30" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="F406" s="30" t="n">
         <v>-0</v>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="B409" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B395:I397),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B404:I406,$B$32:$I$34)+1.2*SUMPRODUCT(B395:I397,$B$39:$I$41)</f>
-        <v>2252.96183664459</v>
+        <v>2041.78622516556</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10773,8 +10773,8 @@
         <v>57</v>
       </c>
       <c r="B410" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B395:I397),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.94</v>
+        <f aca="false">SUMPRODUCT(J395:J397/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J395:J397/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>21.208658008658</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10820,7 +10820,7 @@
         <v>-0</v>
       </c>
       <c r="D414" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E414" s="0" t="n">
         <v>-0</v>
@@ -10849,10 +10849,10 @@
         <v>-0</v>
       </c>
       <c r="D415" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E415" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F415" s="0" t="n">
         <v>-0</v>
@@ -10864,7 +10864,7 @@
         <v>-0</v>
       </c>
       <c r="I415" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10881,7 +10881,7 @@
         <v>-0</v>
       </c>
       <c r="E416" s="0" t="n">
-        <v>500</v>
+        <v>-0</v>
       </c>
       <c r="F416" s="0" t="n">
         <v>-0</v>
